--- a/bot/data/example.xlsx
+++ b/bot/data/example.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
@@ -996,6 +996,144 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>21.02.2023</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Baxromov</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Shahzodbek</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+998999130524</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.07.2003</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Uzbekistan</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Среднее</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Хорошо</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Хорошо знаю</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Не владею английским языком</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>- Кем ты работал? 
+- В какой организации? 
+- Период работы</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>21.02.2023</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>18.07.2004</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ташкент</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Чиланзарский</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Null</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Среднее</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Удовлетворительно</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Не владею русским языком</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Не владею английским языком</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>- Кем ты работал? 
+- В какой организации? 
+- Период работы</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
